--- a/mission.xlsx
+++ b/mission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MissonId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,67 +28,11 @@
     <t>missionId</t>
   </si>
   <si>
-    <t>ballNum</t>
-  </si>
-  <si>
-    <t>numRate</t>
-  </si>
-  <si>
-    <t>additionRate</t>
-  </si>
-  <si>
-    <t>subtractionRate</t>
-  </si>
-  <si>
-    <t>multiplicationRate</t>
-  </si>
-  <si>
-    <t>divisionRate</t>
-  </si>
-  <si>
-    <t>level1</t>
-  </si>
-  <si>
-    <t>level2</t>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level3</t>
-  </si>
-  <si>
-    <t>球数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现加法的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现减法的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现乘法的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现除法的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1星时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2星时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3星时间</t>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,9 +113,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -500,84 +444,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="7" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-265</v>
+      </c>
+      <c r="C3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-69</v>
+      </c>
+      <c r="C4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B6">
+        <v>-40</v>
+      </c>
+      <c r="C6">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B7">
+        <v>-246</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B9">
+        <v>277</v>
+      </c>
+      <c r="C9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B10">
+        <v>147</v>
+      </c>
+      <c r="C10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B11">
+        <v>-155</v>
+      </c>
+      <c r="C11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="K2" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
